--- a/Code/Results/Cases/Case_4_108/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_108/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.017611583026781</v>
+        <v>1.052067075342839</v>
       </c>
       <c r="D2">
-        <v>1.03674786742762</v>
+        <v>1.057668645511186</v>
       </c>
       <c r="E2">
-        <v>1.036047971732091</v>
+        <v>1.065070349420577</v>
       </c>
       <c r="F2">
-        <v>1.044277285380203</v>
+        <v>1.07108362620493</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051205168647704</v>
+        <v>1.042529645657527</v>
       </c>
       <c r="J2">
-        <v>1.039277998461357</v>
+        <v>1.057091632308688</v>
       </c>
       <c r="K2">
-        <v>1.047717927758797</v>
+        <v>1.060402984148173</v>
       </c>
       <c r="L2">
-        <v>1.047026945542303</v>
+        <v>1.067784580832454</v>
       </c>
       <c r="M2">
-        <v>1.055152397292822</v>
+        <v>1.073781743405864</v>
       </c>
       <c r="N2">
-        <v>1.040753892426025</v>
+        <v>1.058592823676671</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.022731104749629</v>
+        <v>1.053157994356217</v>
       </c>
       <c r="D3">
-        <v>1.040664196490696</v>
+        <v>1.058520317407273</v>
       </c>
       <c r="E3">
-        <v>1.040643904578458</v>
+        <v>1.066101332288523</v>
       </c>
       <c r="F3">
-        <v>1.048785247595222</v>
+        <v>1.072088095464427</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052514968740358</v>
+        <v>1.042742864257942</v>
       </c>
       <c r="J3">
-        <v>1.04262071055476</v>
+        <v>1.057832198055621</v>
       </c>
       <c r="K3">
-        <v>1.050801923013968</v>
+        <v>1.061068441721175</v>
       </c>
       <c r="L3">
-        <v>1.050781866256908</v>
+        <v>1.068630351910447</v>
       </c>
       <c r="M3">
-        <v>1.058829763470006</v>
+        <v>1.074602233548445</v>
       </c>
       <c r="N3">
-        <v>1.044101351554015</v>
+        <v>1.059334441111909</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.025973637110106</v>
+        <v>1.053864305389149</v>
       </c>
       <c r="D4">
-        <v>1.043146715669618</v>
+        <v>1.059071565936704</v>
       </c>
       <c r="E4">
-        <v>1.043560085579896</v>
+        <v>1.066769136319237</v>
       </c>
       <c r="F4">
-        <v>1.051644917110958</v>
+        <v>1.072738596733165</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053334091021933</v>
+        <v>1.042879581719978</v>
       </c>
       <c r="J4">
-        <v>1.044735488251738</v>
+        <v>1.058311221562279</v>
       </c>
       <c r="K4">
-        <v>1.052750859577717</v>
+        <v>1.061498551843274</v>
       </c>
       <c r="L4">
-        <v>1.053159736673895</v>
+        <v>1.069177700912126</v>
       </c>
       <c r="M4">
-        <v>1.061157565787707</v>
+        <v>1.075133070926037</v>
       </c>
       <c r="N4">
-        <v>1.046219132477891</v>
+        <v>1.059814144886891</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.027320664028013</v>
+        <v>1.054161337533796</v>
       </c>
       <c r="D5">
-        <v>1.044178443062721</v>
+        <v>1.059303348378529</v>
       </c>
       <c r="E5">
-        <v>1.044772756635252</v>
+        <v>1.067050045592785</v>
       </c>
       <c r="F5">
-        <v>1.052833912979245</v>
+        <v>1.073012196719376</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053671821285697</v>
+        <v>1.042936758383796</v>
       </c>
       <c r="J5">
-        <v>1.045613407057625</v>
+        <v>1.058512561487079</v>
       </c>
       <c r="K5">
-        <v>1.053559397453461</v>
+        <v>1.061679253437947</v>
       </c>
       <c r="L5">
-        <v>1.054147428423266</v>
+        <v>1.069407824788559</v>
       </c>
       <c r="M5">
-        <v>1.062124224048372</v>
+        <v>1.075356216581179</v>
       </c>
       <c r="N5">
-        <v>1.047098298029181</v>
+        <v>1.060015770737478</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.027545908158011</v>
+        <v>1.054211216342559</v>
       </c>
       <c r="D6">
-        <v>1.044350987543684</v>
+        <v>1.059342267852284</v>
       </c>
       <c r="E6">
-        <v>1.044975604661014</v>
+        <v>1.067097221124462</v>
       </c>
       <c r="F6">
-        <v>1.05303279020499</v>
+        <v>1.073058142922422</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053728143788782</v>
+        <v>1.04294634103442</v>
       </c>
       <c r="J6">
-        <v>1.045760171855813</v>
+        <v>1.058546364898805</v>
       </c>
       <c r="K6">
-        <v>1.053694531732866</v>
+        <v>1.061709587173263</v>
       </c>
       <c r="L6">
-        <v>1.054312576927975</v>
+        <v>1.069446464663361</v>
       </c>
       <c r="M6">
-        <v>1.062285841479403</v>
+        <v>1.075393682625873</v>
       </c>
       <c r="N6">
-        <v>1.047245271250216</v>
+        <v>1.060049622153927</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.0259916986989</v>
+        <v>1.053868273958245</v>
       </c>
       <c r="D7">
-        <v>1.043160547958374</v>
+        <v>1.059074662878344</v>
       </c>
       <c r="E7">
-        <v>1.04357634090625</v>
+        <v>1.066772889197149</v>
       </c>
       <c r="F7">
-        <v>1.051660855785884</v>
+        <v>1.072742252082471</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053338629615719</v>
+        <v>1.042880346893986</v>
       </c>
       <c r="J7">
-        <v>1.044747262278441</v>
+        <v>1.05831391203996</v>
       </c>
       <c r="K7">
-        <v>1.052761705248612</v>
+        <v>1.061500966845992</v>
       </c>
       <c r="L7">
-        <v>1.053172980708345</v>
+        <v>1.069180775767062</v>
       </c>
       <c r="M7">
-        <v>1.061170528727943</v>
+        <v>1.075136052682064</v>
       </c>
       <c r="N7">
-        <v>1.046230923225062</v>
+        <v>1.059816839185359</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.019356680256883</v>
+        <v>1.052435670913846</v>
       </c>
       <c r="D8">
-        <v>1.038082361854443</v>
+        <v>1.057956438487524</v>
       </c>
       <c r="E8">
-        <v>1.037613457314415</v>
+        <v>1.065418631889841</v>
       </c>
       <c r="F8">
-        <v>1.045812945600171</v>
+        <v>1.071422978594269</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051653809777516</v>
+        <v>1.042601962369024</v>
       </c>
       <c r="J8">
-        <v>1.040417908014597</v>
+        <v>1.057341945373075</v>
       </c>
       <c r="K8">
-        <v>1.048770056051739</v>
+        <v>1.060627978867062</v>
       </c>
       <c r="L8">
-        <v>1.048306939255351</v>
+        <v>1.068070396590329</v>
       </c>
       <c r="M8">
-        <v>1.056406149629037</v>
+        <v>1.074059047028346</v>
       </c>
       <c r="N8">
-        <v>1.04189542078158</v>
+        <v>1.058843492214321</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.007096222329089</v>
+        <v>1.049914407888423</v>
       </c>
       <c r="D9">
-        <v>1.028718100334612</v>
+        <v>1.055987239765874</v>
       </c>
       <c r="E9">
-        <v>1.02663934026378</v>
+        <v>1.063037558923517</v>
       </c>
       <c r="F9">
-        <v>1.035045360313689</v>
+        <v>1.069102432123855</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048459164323529</v>
+        <v>1.042101858348756</v>
       </c>
       <c r="J9">
-        <v>1.032400859461762</v>
+        <v>1.055627914218465</v>
       </c>
       <c r="K9">
-        <v>1.041361816783253</v>
+        <v>1.059085966097008</v>
       </c>
       <c r="L9">
-        <v>1.039314508009036</v>
+        <v>1.06611438795261</v>
       </c>
       <c r="M9">
-        <v>1.047594334837481</v>
+        <v>1.072160676622867</v>
       </c>
       <c r="N9">
-        <v>1.033866987100232</v>
+        <v>1.057127026938869</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9984929099642431</v>
+        <v>1.04823569171078</v>
       </c>
       <c r="D10">
-        <v>1.022164853516238</v>
+        <v>1.054675325027377</v>
       </c>
       <c r="E10">
-        <v>1.018972202502125</v>
+        <v>1.061453770395294</v>
       </c>
       <c r="F10">
-        <v>1.02751974078204</v>
+        <v>1.067558247371198</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046165267109274</v>
+        <v>1.041762047848088</v>
       </c>
       <c r="J10">
-        <v>1.02676645033984</v>
+        <v>1.054484371335485</v>
       </c>
       <c r="K10">
-        <v>1.036145123660986</v>
+        <v>1.058055499498231</v>
       </c>
       <c r="L10">
-        <v>1.033007153680787</v>
+        <v>1.064810824505765</v>
       </c>
       <c r="M10">
-        <v>1.041409280857319</v>
+        <v>1.070894755897363</v>
       </c>
       <c r="N10">
-        <v>1.028224576471081</v>
+        <v>1.055981860093829</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9946540686355754</v>
+        <v>1.047509291665645</v>
       </c>
       <c r="D11">
-        <v>1.019246082184879</v>
+        <v>1.054107469150335</v>
       </c>
       <c r="E11">
-        <v>1.015559885573547</v>
+        <v>1.060768830212033</v>
       </c>
       <c r="F11">
-        <v>1.02416990561667</v>
+        <v>1.066890280007948</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045130035276832</v>
+        <v>1.041613389492006</v>
       </c>
       <c r="J11">
-        <v>1.024250948213141</v>
+        <v>1.053989005299041</v>
       </c>
       <c r="K11">
-        <v>1.033813949006058</v>
+        <v>1.057608718248073</v>
       </c>
       <c r="L11">
-        <v>1.030194212174002</v>
+        <v>1.064246476585429</v>
       </c>
       <c r="M11">
-        <v>1.038649967207903</v>
+        <v>1.070346522895357</v>
       </c>
       <c r="N11">
-        <v>1.025705502042829</v>
+        <v>1.055485790580795</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9932100130305108</v>
+        <v>1.047239548486879</v>
       </c>
       <c r="D12">
-        <v>1.018149028445016</v>
+        <v>1.05389657459217</v>
       </c>
       <c r="E12">
-        <v>1.014277674167282</v>
+        <v>1.060514541093245</v>
       </c>
       <c r="F12">
-        <v>1.022911111192723</v>
+        <v>1.066642269024342</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044738919734465</v>
+        <v>1.041557943282508</v>
       </c>
       <c r="J12">
-        <v>1.02330454340397</v>
+        <v>1.053804973793456</v>
       </c>
       <c r="K12">
-        <v>1.03293659050679</v>
+        <v>1.057442676642891</v>
       </c>
       <c r="L12">
-        <v>1.029136354907708</v>
+        <v>1.064036868498064</v>
       </c>
       <c r="M12">
-        <v>1.037612151380518</v>
+        <v>1.070142872939022</v>
       </c>
       <c r="N12">
-        <v>1.024757753230276</v>
+        <v>1.055301497729363</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9935206069695389</v>
+        <v>1.04729740596328</v>
       </c>
       <c r="D13">
-        <v>1.018384945367399</v>
+        <v>1.053941810715569</v>
       </c>
       <c r="E13">
-        <v>1.014553393463546</v>
+        <v>1.060569081167112</v>
       </c>
       <c r="F13">
-        <v>1.023181797561176</v>
+        <v>1.066695463606642</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.0448231180438</v>
+        <v>1.041569846991182</v>
       </c>
       <c r="J13">
-        <v>1.023508106106058</v>
+        <v>1.053844450553089</v>
       </c>
       <c r="K13">
-        <v>1.03312531532672</v>
+        <v>1.057478297069279</v>
       </c>
       <c r="L13">
-        <v>1.029363869479146</v>
+        <v>1.064081829422137</v>
       </c>
       <c r="M13">
-        <v>1.037835361134522</v>
+        <v>1.070186557074621</v>
       </c>
       <c r="N13">
-        <v>1.024961605014749</v>
+        <v>1.055341030550523</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9945350791265017</v>
+        <v>1.047486993099301</v>
       </c>
       <c r="D14">
-        <v>1.019155666593853</v>
+        <v>1.054090035876162</v>
       </c>
       <c r="E14">
-        <v>1.015454203071855</v>
+        <v>1.06074780797762</v>
       </c>
       <c r="F14">
-        <v>1.024066154348363</v>
+        <v>1.066869777262626</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045097841561343</v>
+        <v>1.041608810938431</v>
       </c>
       <c r="J14">
-        <v>1.024172967565491</v>
+        <v>1.053973793818427</v>
       </c>
       <c r="K14">
-        <v>1.033741663574135</v>
+        <v>1.057594994973145</v>
       </c>
       <c r="L14">
-        <v>1.030107038994316</v>
+        <v>1.064229149990388</v>
       </c>
       <c r="M14">
-        <v>1.038564448050727</v>
+        <v>1.070329689365277</v>
       </c>
       <c r="N14">
-        <v>1.025627410653715</v>
+        <v>1.055470557498133</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9951576915645357</v>
+        <v>1.04760381380805</v>
       </c>
       <c r="D15">
-        <v>1.019628803304664</v>
+        <v>1.054181366599761</v>
       </c>
       <c r="E15">
-        <v>1.016007244069741</v>
+        <v>1.060857944457676</v>
       </c>
       <c r="F15">
-        <v>1.02460908671486</v>
+        <v>1.066977191167002</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045266226542198</v>
+        <v>1.04163278772271</v>
       </c>
       <c r="J15">
-        <v>1.024580995485689</v>
+        <v>1.054053482437342</v>
       </c>
       <c r="K15">
-        <v>1.034119879490309</v>
+        <v>1.057666884864576</v>
       </c>
       <c r="L15">
-        <v>1.030563184617443</v>
+        <v>1.06431992116456</v>
       </c>
       <c r="M15">
-        <v>1.039011933696692</v>
+        <v>1.070417876339351</v>
       </c>
       <c r="N15">
-        <v>1.026036018020361</v>
+        <v>1.055550359284027</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9987451986534821</v>
+        <v>1.048283910900133</v>
       </c>
       <c r="D16">
-        <v>1.022356794261546</v>
+        <v>1.054713016263951</v>
       </c>
       <c r="E16">
-        <v>1.019196649525559</v>
+        <v>1.061499245572921</v>
       </c>
       <c r="F16">
-        <v>1.027740068757547</v>
+        <v>1.067602592421485</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046233064554045</v>
+        <v>1.041771881845471</v>
       </c>
       <c r="J16">
-        <v>1.026931745091147</v>
+        <v>1.054517242858697</v>
       </c>
       <c r="K16">
-        <v>1.036298262979018</v>
+        <v>1.05808513865701</v>
       </c>
       <c r="L16">
-        <v>1.033192055909846</v>
+        <v>1.064848280626753</v>
       </c>
       <c r="M16">
-        <v>1.041590639857982</v>
+        <v>1.070931138640468</v>
       </c>
       <c r="N16">
-        <v>1.028390105959894</v>
+        <v>1.056014778298375</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.000964410903456</v>
+        <v>1.048710650224042</v>
       </c>
       <c r="D17">
-        <v>1.024045783148952</v>
+        <v>1.055046563175086</v>
       </c>
       <c r="E17">
-        <v>1.021171966793325</v>
+        <v>1.061901744825767</v>
       </c>
       <c r="F17">
-        <v>1.029679079526976</v>
+        <v>1.067995071093669</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046828111504422</v>
+        <v>1.041858725605502</v>
       </c>
       <c r="J17">
-        <v>1.028385578603578</v>
+        <v>1.054808092935822</v>
       </c>
       <c r="K17">
-        <v>1.037644941249974</v>
+        <v>1.058347342525642</v>
       </c>
       <c r="L17">
-        <v>1.034818686214274</v>
+        <v>1.065179734510175</v>
       </c>
       <c r="M17">
-        <v>1.043185996704686</v>
+        <v>1.071253073093656</v>
       </c>
       <c r="N17">
-        <v>1.02984600408267</v>
+        <v>1.05630604141597</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.00224796120464</v>
+        <v>1.04895960784177</v>
       </c>
       <c r="D18">
-        <v>1.025023159633062</v>
+        <v>1.055241135848658</v>
       </c>
       <c r="E18">
-        <v>1.022315281383141</v>
+        <v>1.062136597886655</v>
       </c>
       <c r="F18">
-        <v>1.030801331269181</v>
+        <v>1.068224062343373</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.0471711639218</v>
+        <v>1.041909233606154</v>
       </c>
       <c r="J18">
-        <v>1.029226311447301</v>
+        <v>1.054977721127166</v>
       </c>
       <c r="K18">
-        <v>1.038423501177133</v>
+        <v>1.058500225388462</v>
       </c>
       <c r="L18">
-        <v>1.035759629168415</v>
+        <v>1.065373075934544</v>
       </c>
       <c r="M18">
-        <v>1.044108761619664</v>
+        <v>1.071440844176698</v>
       </c>
       <c r="N18">
-        <v>1.030687930863464</v>
+        <v>1.056475910498802</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.002683804870407</v>
+        <v>1.049044504069395</v>
       </c>
       <c r="D19">
-        <v>1.025355120075171</v>
+        <v>1.055307483545632</v>
       </c>
       <c r="E19">
-        <v>1.022703644798061</v>
+        <v>1.062216690618727</v>
       </c>
       <c r="F19">
-        <v>1.031182531353449</v>
+        <v>1.068302153466915</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047287460811239</v>
+        <v>1.041926430674616</v>
       </c>
       <c r="J19">
-        <v>1.029511766574021</v>
+        <v>1.055035556602633</v>
       </c>
       <c r="K19">
-        <v>1.038687810995395</v>
+        <v>1.058552344947882</v>
       </c>
       <c r="L19">
-        <v>1.036079156878534</v>
+        <v>1.065439002048333</v>
       </c>
       <c r="M19">
-        <v>1.044422101210912</v>
+        <v>1.071504867923511</v>
       </c>
       <c r="N19">
-        <v>1.030973791369206</v>
+        <v>1.056533828107279</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.000727443189792</v>
+        <v>1.048664860191741</v>
       </c>
       <c r="D20">
-        <v>1.023865380439457</v>
+        <v>1.055010774633572</v>
       </c>
       <c r="E20">
-        <v>1.020960955703525</v>
+        <v>1.061858551975023</v>
       </c>
       <c r="F20">
-        <v>1.029471951784968</v>
+        <v>1.067952955111604</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04676468723293</v>
+        <v>1.041849423243079</v>
       </c>
       <c r="J20">
-        <v>1.028230351893866</v>
+        <v>1.054776889515119</v>
       </c>
       <c r="K20">
-        <v>1.037501176843842</v>
+        <v>1.058319216344301</v>
       </c>
       <c r="L20">
-        <v>1.034644980396573</v>
+        <v>1.065144171610716</v>
       </c>
       <c r="M20">
-        <v>1.043015639547004</v>
+        <v>1.071218533381533</v>
       </c>
       <c r="N20">
-        <v>1.029690556933226</v>
+        <v>1.056274793682831</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9942368521897346</v>
+        <v>1.047431162368389</v>
       </c>
       <c r="D21">
-        <v>1.018929070152397</v>
+        <v>1.054046386361862</v>
       </c>
       <c r="E21">
-        <v>1.015189350677589</v>
+        <v>1.060695173845816</v>
       </c>
       <c r="F21">
-        <v>1.023806140910165</v>
+        <v>1.066818443420777</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045017126454537</v>
+        <v>1.041597343315941</v>
       </c>
       <c r="J21">
-        <v>1.023977520165539</v>
+        <v>1.053935706290942</v>
       </c>
       <c r="K21">
-        <v>1.033560485618854</v>
+        <v>1.057560632752228</v>
       </c>
       <c r="L21">
-        <v>1.029888559121855</v>
+        <v>1.064185767314855</v>
       </c>
       <c r="M21">
-        <v>1.038350111617335</v>
+        <v>1.070287540796284</v>
       </c>
       <c r="N21">
-        <v>1.025431685696037</v>
+        <v>1.05543241588199</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9900504140026241</v>
+        <v>1.046655916419562</v>
       </c>
       <c r="D22">
-        <v>1.015750441218015</v>
+        <v>1.053440224907663</v>
       </c>
       <c r="E22">
-        <v>1.011474852915288</v>
+        <v>1.059964453525752</v>
       </c>
       <c r="F22">
-        <v>1.020159381879007</v>
+        <v>1.066105720310741</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043880115497042</v>
+        <v>1.041437532339907</v>
       </c>
       <c r="J22">
-        <v>1.021233602286517</v>
+        <v>1.053406644632623</v>
       </c>
       <c r="K22">
-        <v>1.03101620558073</v>
+        <v>1.057083177054381</v>
       </c>
       <c r="L22">
-        <v>1.026822367348652</v>
+        <v>1.063583272386337</v>
       </c>
       <c r="M22">
-        <v>1.035341783733296</v>
+        <v>1.069702120659625</v>
       </c>
       <c r="N22">
-        <v>1.022683871138895</v>
+        <v>1.054902602895432</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9922801121503585</v>
+        <v>1.047066848397687</v>
       </c>
       <c r="D23">
-        <v>1.01744284621849</v>
+        <v>1.053761544579059</v>
       </c>
       <c r="E23">
-        <v>1.013452397162813</v>
+        <v>1.060351751771256</v>
       </c>
       <c r="F23">
-        <v>1.022100890825362</v>
+        <v>1.066483492295244</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044486591636014</v>
+        <v>1.041522376052914</v>
       </c>
       <c r="J23">
-        <v>1.02269507109069</v>
+        <v>1.053687126876361</v>
       </c>
       <c r="K23">
-        <v>1.03237150056143</v>
+        <v>1.057336333019467</v>
       </c>
       <c r="L23">
-        <v>1.028455236601418</v>
+        <v>1.063902657541622</v>
       </c>
       <c r="M23">
-        <v>1.036943902949939</v>
+        <v>1.070012469290782</v>
       </c>
       <c r="N23">
-        <v>1.024147415396403</v>
+        <v>1.055183483456128</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.000834552238505</v>
+        <v>1.048685550588484</v>
       </c>
       <c r="D24">
-        <v>1.023946920656885</v>
+        <v>1.055026945871918</v>
       </c>
       <c r="E24">
-        <v>1.021056329833732</v>
+        <v>1.061878068711451</v>
       </c>
       <c r="F24">
-        <v>1.029565570846857</v>
+        <v>1.067971985309899</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046793358359516</v>
+        <v>1.04185362703287</v>
       </c>
       <c r="J24">
-        <v>1.028300514561405</v>
+        <v>1.054790989058712</v>
       </c>
       <c r="K24">
-        <v>1.037566159177731</v>
+        <v>1.058331925528627</v>
       </c>
       <c r="L24">
-        <v>1.034723494763466</v>
+        <v>1.065160240923283</v>
       </c>
       <c r="M24">
-        <v>1.043092640604689</v>
+        <v>1.071234140414854</v>
       </c>
       <c r="N24">
-        <v>1.0297608192398</v>
+        <v>1.056288913249393</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.01033789986095</v>
+        <v>1.050565839904383</v>
       </c>
       <c r="D25">
-        <v>1.031191307861532</v>
+        <v>1.0564961719018</v>
       </c>
       <c r="E25">
-        <v>1.02953539986997</v>
+        <v>1.063652492123256</v>
       </c>
       <c r="F25">
-        <v>1.037887444105153</v>
+        <v>1.069701849873498</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049313028444276</v>
+        <v>1.042232277851301</v>
       </c>
       <c r="J25">
-        <v>1.034522291777022</v>
+        <v>1.05607118458682</v>
       </c>
       <c r="K25">
-        <v>1.043323973306702</v>
+        <v>1.059485048607568</v>
       </c>
       <c r="L25">
-        <v>1.041691887475915</v>
+        <v>1.066619986914063</v>
       </c>
       <c r="M25">
-        <v>1.049924757758943</v>
+        <v>1.072651512979423</v>
       </c>
       <c r="N25">
-        <v>1.035991432092711</v>
+        <v>1.057570926801991</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_108/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_108/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.052067075342839</v>
+        <v>1.017611583026782</v>
       </c>
       <c r="D2">
-        <v>1.057668645511186</v>
+        <v>1.03674786742762</v>
       </c>
       <c r="E2">
-        <v>1.065070349420577</v>
+        <v>1.036047971732091</v>
       </c>
       <c r="F2">
-        <v>1.07108362620493</v>
+        <v>1.044277285380203</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042529645657527</v>
+        <v>1.051205168647704</v>
       </c>
       <c r="J2">
-        <v>1.057091632308688</v>
+        <v>1.039277998461358</v>
       </c>
       <c r="K2">
-        <v>1.060402984148173</v>
+        <v>1.047717927758797</v>
       </c>
       <c r="L2">
-        <v>1.067784580832454</v>
+        <v>1.047026945542303</v>
       </c>
       <c r="M2">
-        <v>1.073781743405864</v>
+        <v>1.055152397292822</v>
       </c>
       <c r="N2">
-        <v>1.058592823676671</v>
+        <v>1.040753892426026</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.053157994356217</v>
+        <v>1.022731104749629</v>
       </c>
       <c r="D3">
-        <v>1.058520317407273</v>
+        <v>1.040664196490696</v>
       </c>
       <c r="E3">
-        <v>1.066101332288523</v>
+        <v>1.040643904578458</v>
       </c>
       <c r="F3">
-        <v>1.072088095464427</v>
+        <v>1.048785247595222</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042742864257942</v>
+        <v>1.052514968740358</v>
       </c>
       <c r="J3">
-        <v>1.057832198055621</v>
+        <v>1.04262071055476</v>
       </c>
       <c r="K3">
-        <v>1.061068441721175</v>
+        <v>1.050801923013968</v>
       </c>
       <c r="L3">
-        <v>1.068630351910447</v>
+        <v>1.050781866256907</v>
       </c>
       <c r="M3">
-        <v>1.074602233548445</v>
+        <v>1.058829763470006</v>
       </c>
       <c r="N3">
-        <v>1.059334441111909</v>
+        <v>1.044101351554015</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.053864305389149</v>
+        <v>1.025973637110107</v>
       </c>
       <c r="D4">
-        <v>1.059071565936704</v>
+        <v>1.043146715669618</v>
       </c>
       <c r="E4">
-        <v>1.066769136319237</v>
+        <v>1.043560085579897</v>
       </c>
       <c r="F4">
-        <v>1.072738596733165</v>
+        <v>1.051644917110958</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042879581719978</v>
+        <v>1.053334091021934</v>
       </c>
       <c r="J4">
-        <v>1.058311221562279</v>
+        <v>1.044735488251739</v>
       </c>
       <c r="K4">
-        <v>1.061498551843274</v>
+        <v>1.052750859577718</v>
       </c>
       <c r="L4">
-        <v>1.069177700912126</v>
+        <v>1.053159736673895</v>
       </c>
       <c r="M4">
-        <v>1.075133070926037</v>
+        <v>1.061157565787708</v>
       </c>
       <c r="N4">
-        <v>1.059814144886891</v>
+        <v>1.046219132477892</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.054161337533796</v>
+        <v>1.027320664028013</v>
       </c>
       <c r="D5">
-        <v>1.059303348378529</v>
+        <v>1.044178443062721</v>
       </c>
       <c r="E5">
-        <v>1.067050045592785</v>
+        <v>1.044772756635252</v>
       </c>
       <c r="F5">
-        <v>1.073012196719376</v>
+        <v>1.052833912979245</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042936758383796</v>
+        <v>1.053671821285697</v>
       </c>
       <c r="J5">
-        <v>1.058512561487079</v>
+        <v>1.045613407057625</v>
       </c>
       <c r="K5">
-        <v>1.061679253437947</v>
+        <v>1.053559397453461</v>
       </c>
       <c r="L5">
-        <v>1.069407824788559</v>
+        <v>1.054147428423266</v>
       </c>
       <c r="M5">
-        <v>1.075356216581179</v>
+        <v>1.062124224048372</v>
       </c>
       <c r="N5">
-        <v>1.060015770737478</v>
+        <v>1.047098298029181</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.054211216342559</v>
+        <v>1.027545908158009</v>
       </c>
       <c r="D6">
-        <v>1.059342267852284</v>
+        <v>1.044350987543683</v>
       </c>
       <c r="E6">
-        <v>1.067097221124462</v>
+        <v>1.044975604661012</v>
       </c>
       <c r="F6">
-        <v>1.073058142922422</v>
+        <v>1.053032790204988</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04294634103442</v>
+        <v>1.053728143788781</v>
       </c>
       <c r="J6">
-        <v>1.058546364898805</v>
+        <v>1.045760171855811</v>
       </c>
       <c r="K6">
-        <v>1.061709587173263</v>
+        <v>1.053694531732865</v>
       </c>
       <c r="L6">
-        <v>1.069446464663361</v>
+        <v>1.054312576927973</v>
       </c>
       <c r="M6">
-        <v>1.075393682625873</v>
+        <v>1.062285841479402</v>
       </c>
       <c r="N6">
-        <v>1.060049622153927</v>
+        <v>1.047245271250214</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.053868273958245</v>
+        <v>1.0259916986989</v>
       </c>
       <c r="D7">
-        <v>1.059074662878344</v>
+        <v>1.043160547958374</v>
       </c>
       <c r="E7">
-        <v>1.066772889197149</v>
+        <v>1.04357634090625</v>
       </c>
       <c r="F7">
-        <v>1.072742252082471</v>
+        <v>1.051660855785884</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042880346893986</v>
+        <v>1.053338629615719</v>
       </c>
       <c r="J7">
-        <v>1.05831391203996</v>
+        <v>1.044747262278441</v>
       </c>
       <c r="K7">
-        <v>1.061500966845992</v>
+        <v>1.052761705248612</v>
       </c>
       <c r="L7">
-        <v>1.069180775767062</v>
+        <v>1.053172980708345</v>
       </c>
       <c r="M7">
-        <v>1.075136052682064</v>
+        <v>1.061170528727942</v>
       </c>
       <c r="N7">
-        <v>1.059816839185359</v>
+        <v>1.046230923225062</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.052435670913846</v>
+        <v>1.019356680256883</v>
       </c>
       <c r="D8">
-        <v>1.057956438487524</v>
+        <v>1.038082361854442</v>
       </c>
       <c r="E8">
-        <v>1.065418631889841</v>
+        <v>1.037613457314414</v>
       </c>
       <c r="F8">
-        <v>1.071422978594269</v>
+        <v>1.045812945600171</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042601962369024</v>
+        <v>1.051653809777516</v>
       </c>
       <c r="J8">
-        <v>1.057341945373075</v>
+        <v>1.040417908014597</v>
       </c>
       <c r="K8">
-        <v>1.060627978867062</v>
+        <v>1.048770056051739</v>
       </c>
       <c r="L8">
-        <v>1.068070396590329</v>
+        <v>1.048306939255351</v>
       </c>
       <c r="M8">
-        <v>1.074059047028346</v>
+        <v>1.056406149629037</v>
       </c>
       <c r="N8">
-        <v>1.058843492214321</v>
+        <v>1.041895420781579</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.049914407888423</v>
+        <v>1.00709622232909</v>
       </c>
       <c r="D9">
-        <v>1.055987239765874</v>
+        <v>1.028718100334613</v>
       </c>
       <c r="E9">
-        <v>1.063037558923517</v>
+        <v>1.026639340263781</v>
       </c>
       <c r="F9">
-        <v>1.069102432123855</v>
+        <v>1.035045360313691</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042101858348756</v>
+        <v>1.048459164323529</v>
       </c>
       <c r="J9">
-        <v>1.055627914218465</v>
+        <v>1.032400859461763</v>
       </c>
       <c r="K9">
-        <v>1.059085966097008</v>
+        <v>1.041361816783254</v>
       </c>
       <c r="L9">
-        <v>1.06611438795261</v>
+        <v>1.039314508009037</v>
       </c>
       <c r="M9">
-        <v>1.072160676622867</v>
+        <v>1.047594334837483</v>
       </c>
       <c r="N9">
-        <v>1.057127026938869</v>
+        <v>1.033866987100232</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.04823569171078</v>
+        <v>0.9984929099642412</v>
       </c>
       <c r="D10">
-        <v>1.054675325027377</v>
+        <v>1.022164853516236</v>
       </c>
       <c r="E10">
-        <v>1.061453770395294</v>
+        <v>1.018972202502123</v>
       </c>
       <c r="F10">
-        <v>1.067558247371198</v>
+        <v>1.027519740782038</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041762047848088</v>
+        <v>1.046165267109273</v>
       </c>
       <c r="J10">
-        <v>1.054484371335485</v>
+        <v>1.026766450339838</v>
       </c>
       <c r="K10">
-        <v>1.058055499498231</v>
+        <v>1.036145123660984</v>
       </c>
       <c r="L10">
-        <v>1.064810824505765</v>
+        <v>1.033007153680785</v>
       </c>
       <c r="M10">
-        <v>1.070894755897363</v>
+        <v>1.041409280857317</v>
       </c>
       <c r="N10">
-        <v>1.055981860093829</v>
+        <v>1.028224576471079</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.047509291665645</v>
+        <v>0.9946540686355758</v>
       </c>
       <c r="D11">
-        <v>1.054107469150335</v>
+        <v>1.019246082184879</v>
       </c>
       <c r="E11">
-        <v>1.060768830212033</v>
+        <v>1.015559885573547</v>
       </c>
       <c r="F11">
-        <v>1.066890280007948</v>
+        <v>1.02416990561667</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041613389492006</v>
+        <v>1.045130035276832</v>
       </c>
       <c r="J11">
-        <v>1.053989005299041</v>
+        <v>1.024250948213141</v>
       </c>
       <c r="K11">
-        <v>1.057608718248073</v>
+        <v>1.033813949006058</v>
       </c>
       <c r="L11">
-        <v>1.064246476585429</v>
+        <v>1.030194212174002</v>
       </c>
       <c r="M11">
-        <v>1.070346522895357</v>
+        <v>1.038649967207903</v>
       </c>
       <c r="N11">
-        <v>1.055485790580795</v>
+        <v>1.02570550204283</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.047239548486879</v>
+        <v>0.9932100130305113</v>
       </c>
       <c r="D12">
-        <v>1.05389657459217</v>
+        <v>1.018149028445016</v>
       </c>
       <c r="E12">
-        <v>1.060514541093245</v>
+        <v>1.014277674167282</v>
       </c>
       <c r="F12">
-        <v>1.066642269024342</v>
+        <v>1.022911111192724</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041557943282508</v>
+        <v>1.044738919734465</v>
       </c>
       <c r="J12">
-        <v>1.053804973793456</v>
+        <v>1.023304543403971</v>
       </c>
       <c r="K12">
-        <v>1.057442676642891</v>
+        <v>1.03293659050679</v>
       </c>
       <c r="L12">
-        <v>1.064036868498064</v>
+        <v>1.029136354907709</v>
       </c>
       <c r="M12">
-        <v>1.070142872939022</v>
+        <v>1.037612151380519</v>
       </c>
       <c r="N12">
-        <v>1.055301497729363</v>
+        <v>1.024757753230276</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.04729740596328</v>
+        <v>0.9935206069695398</v>
       </c>
       <c r="D13">
-        <v>1.053941810715569</v>
+        <v>1.0183849453674</v>
       </c>
       <c r="E13">
-        <v>1.060569081167112</v>
+        <v>1.014553393463546</v>
       </c>
       <c r="F13">
-        <v>1.066695463606642</v>
+        <v>1.023181797561177</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041569846991182</v>
+        <v>1.044823118043801</v>
       </c>
       <c r="J13">
-        <v>1.053844450553089</v>
+        <v>1.023508106106059</v>
       </c>
       <c r="K13">
-        <v>1.057478297069279</v>
+        <v>1.033125315326722</v>
       </c>
       <c r="L13">
-        <v>1.064081829422137</v>
+        <v>1.029363869479147</v>
       </c>
       <c r="M13">
-        <v>1.070186557074621</v>
+        <v>1.037835361134523</v>
       </c>
       <c r="N13">
-        <v>1.055341030550523</v>
+        <v>1.02496160501475</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.047486993099301</v>
+        <v>0.9945350791265014</v>
       </c>
       <c r="D14">
-        <v>1.054090035876162</v>
+        <v>1.019155666593853</v>
       </c>
       <c r="E14">
-        <v>1.06074780797762</v>
+        <v>1.015454203071855</v>
       </c>
       <c r="F14">
-        <v>1.066869777262626</v>
+        <v>1.024066154348363</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041608810938431</v>
+        <v>1.045097841561343</v>
       </c>
       <c r="J14">
-        <v>1.053973793818427</v>
+        <v>1.02417296756549</v>
       </c>
       <c r="K14">
-        <v>1.057594994973145</v>
+        <v>1.033741663574135</v>
       </c>
       <c r="L14">
-        <v>1.064229149990388</v>
+        <v>1.030107038994316</v>
       </c>
       <c r="M14">
-        <v>1.070329689365277</v>
+        <v>1.038564448050726</v>
       </c>
       <c r="N14">
-        <v>1.055470557498133</v>
+        <v>1.025627410653715</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.04760381380805</v>
+        <v>0.9951576915645362</v>
       </c>
       <c r="D15">
-        <v>1.054181366599761</v>
+        <v>1.019628803304664</v>
       </c>
       <c r="E15">
-        <v>1.060857944457676</v>
+        <v>1.016007244069742</v>
       </c>
       <c r="F15">
-        <v>1.066977191167002</v>
+        <v>1.02460908671486</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04163278772271</v>
+        <v>1.045266226542199</v>
       </c>
       <c r="J15">
-        <v>1.054053482437342</v>
+        <v>1.024580995485689</v>
       </c>
       <c r="K15">
-        <v>1.057666884864576</v>
+        <v>1.034119879490309</v>
       </c>
       <c r="L15">
-        <v>1.06431992116456</v>
+        <v>1.030563184617443</v>
       </c>
       <c r="M15">
-        <v>1.070417876339351</v>
+        <v>1.039011933696693</v>
       </c>
       <c r="N15">
-        <v>1.055550359284027</v>
+        <v>1.026036018020361</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.048283910900133</v>
+        <v>0.9987451986534833</v>
       </c>
       <c r="D16">
-        <v>1.054713016263951</v>
+        <v>1.022356794261547</v>
       </c>
       <c r="E16">
-        <v>1.061499245572921</v>
+        <v>1.019196649525561</v>
       </c>
       <c r="F16">
-        <v>1.067602592421485</v>
+        <v>1.027740068757548</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041771881845471</v>
+        <v>1.046233064554045</v>
       </c>
       <c r="J16">
-        <v>1.054517242858697</v>
+        <v>1.026931745091148</v>
       </c>
       <c r="K16">
-        <v>1.05808513865701</v>
+        <v>1.036298262979019</v>
       </c>
       <c r="L16">
-        <v>1.064848280626753</v>
+        <v>1.033192055909848</v>
       </c>
       <c r="M16">
-        <v>1.070931138640468</v>
+        <v>1.041590639857984</v>
       </c>
       <c r="N16">
-        <v>1.056014778298375</v>
+        <v>1.028390105959895</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.048710650224042</v>
+        <v>1.000964410903457</v>
       </c>
       <c r="D17">
-        <v>1.055046563175086</v>
+        <v>1.024045783148953</v>
       </c>
       <c r="E17">
-        <v>1.061901744825767</v>
+        <v>1.021171966793326</v>
       </c>
       <c r="F17">
-        <v>1.067995071093669</v>
+        <v>1.029679079526977</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041858725605502</v>
+        <v>1.046828111504423</v>
       </c>
       <c r="J17">
-        <v>1.054808092935822</v>
+        <v>1.028385578603579</v>
       </c>
       <c r="K17">
-        <v>1.058347342525642</v>
+        <v>1.037644941249975</v>
       </c>
       <c r="L17">
-        <v>1.065179734510175</v>
+        <v>1.034818686214275</v>
       </c>
       <c r="M17">
-        <v>1.071253073093656</v>
+        <v>1.043185996704687</v>
       </c>
       <c r="N17">
-        <v>1.05630604141597</v>
+        <v>1.029846004082671</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.04895960784177</v>
+        <v>1.00224796120464</v>
       </c>
       <c r="D18">
-        <v>1.055241135848658</v>
+        <v>1.025023159633062</v>
       </c>
       <c r="E18">
-        <v>1.062136597886655</v>
+        <v>1.022315281383141</v>
       </c>
       <c r="F18">
-        <v>1.068224062343373</v>
+        <v>1.030801331269181</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041909233606154</v>
+        <v>1.0471711639218</v>
       </c>
       <c r="J18">
-        <v>1.054977721127166</v>
+        <v>1.029226311447301</v>
       </c>
       <c r="K18">
-        <v>1.058500225388462</v>
+        <v>1.038423501177133</v>
       </c>
       <c r="L18">
-        <v>1.065373075934544</v>
+        <v>1.035759629168415</v>
       </c>
       <c r="M18">
-        <v>1.071440844176698</v>
+        <v>1.044108761619664</v>
       </c>
       <c r="N18">
-        <v>1.056475910498802</v>
+        <v>1.030687930863464</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.049044504069395</v>
+        <v>1.002683804870408</v>
       </c>
       <c r="D19">
-        <v>1.055307483545632</v>
+        <v>1.025355120075171</v>
       </c>
       <c r="E19">
-        <v>1.062216690618727</v>
+        <v>1.022703644798061</v>
       </c>
       <c r="F19">
-        <v>1.068302153466915</v>
+        <v>1.031182531353449</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041926430674616</v>
+        <v>1.047287460811239</v>
       </c>
       <c r="J19">
-        <v>1.055035556602633</v>
+        <v>1.029511766574021</v>
       </c>
       <c r="K19">
-        <v>1.058552344947882</v>
+        <v>1.038687810995395</v>
       </c>
       <c r="L19">
-        <v>1.065439002048333</v>
+        <v>1.036079156878534</v>
       </c>
       <c r="M19">
-        <v>1.071504867923511</v>
+        <v>1.044422101210913</v>
       </c>
       <c r="N19">
-        <v>1.056533828107279</v>
+        <v>1.030973791369206</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.048664860191741</v>
+        <v>1.000727443189792</v>
       </c>
       <c r="D20">
-        <v>1.055010774633572</v>
+        <v>1.023865380439457</v>
       </c>
       <c r="E20">
-        <v>1.061858551975023</v>
+        <v>1.020960955703525</v>
       </c>
       <c r="F20">
-        <v>1.067952955111604</v>
+        <v>1.029471951784969</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041849423243079</v>
+        <v>1.04676468723293</v>
       </c>
       <c r="J20">
-        <v>1.054776889515119</v>
+        <v>1.028230351893867</v>
       </c>
       <c r="K20">
-        <v>1.058319216344301</v>
+        <v>1.037501176843842</v>
       </c>
       <c r="L20">
-        <v>1.065144171610716</v>
+        <v>1.034644980396573</v>
       </c>
       <c r="M20">
-        <v>1.071218533381533</v>
+        <v>1.043015639547005</v>
       </c>
       <c r="N20">
-        <v>1.056274793682831</v>
+        <v>1.029690556933226</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.047431162368389</v>
+        <v>0.9942368521897356</v>
       </c>
       <c r="D21">
-        <v>1.054046386361862</v>
+        <v>1.018929070152398</v>
       </c>
       <c r="E21">
-        <v>1.060695173845816</v>
+        <v>1.01518935067759</v>
       </c>
       <c r="F21">
-        <v>1.066818443420777</v>
+        <v>1.023806140910166</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041597343315941</v>
+        <v>1.045017126454537</v>
       </c>
       <c r="J21">
-        <v>1.053935706290942</v>
+        <v>1.02397752016554</v>
       </c>
       <c r="K21">
-        <v>1.057560632752228</v>
+        <v>1.033560485618855</v>
       </c>
       <c r="L21">
-        <v>1.064185767314855</v>
+        <v>1.029888559121856</v>
       </c>
       <c r="M21">
-        <v>1.070287540796284</v>
+        <v>1.038350111617336</v>
       </c>
       <c r="N21">
-        <v>1.05543241588199</v>
+        <v>1.025431685696038</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.046655916419562</v>
+        <v>0.9900504140026247</v>
       </c>
       <c r="D22">
-        <v>1.053440224907663</v>
+        <v>1.015750441218015</v>
       </c>
       <c r="E22">
-        <v>1.059964453525752</v>
+        <v>1.011474852915289</v>
       </c>
       <c r="F22">
-        <v>1.066105720310741</v>
+        <v>1.020159381879008</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041437532339907</v>
+        <v>1.043880115497042</v>
       </c>
       <c r="J22">
-        <v>1.053406644632623</v>
+        <v>1.021233602286517</v>
       </c>
       <c r="K22">
-        <v>1.057083177054381</v>
+        <v>1.03101620558073</v>
       </c>
       <c r="L22">
-        <v>1.063583272386337</v>
+        <v>1.026822367348652</v>
       </c>
       <c r="M22">
-        <v>1.069702120659625</v>
+        <v>1.035341783733296</v>
       </c>
       <c r="N22">
-        <v>1.054902602895432</v>
+        <v>1.022683871138895</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.047066848397687</v>
+        <v>0.9922801121503589</v>
       </c>
       <c r="D23">
-        <v>1.053761544579059</v>
+        <v>1.01744284621849</v>
       </c>
       <c r="E23">
-        <v>1.060351751771256</v>
+        <v>1.013452397162814</v>
       </c>
       <c r="F23">
-        <v>1.066483492295244</v>
+        <v>1.022100890825363</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041522376052914</v>
+        <v>1.044486591636014</v>
       </c>
       <c r="J23">
-        <v>1.053687126876361</v>
+        <v>1.02269507109069</v>
       </c>
       <c r="K23">
-        <v>1.057336333019467</v>
+        <v>1.03237150056143</v>
       </c>
       <c r="L23">
-        <v>1.063902657541622</v>
+        <v>1.028455236601418</v>
       </c>
       <c r="M23">
-        <v>1.070012469290782</v>
+        <v>1.036943902949939</v>
       </c>
       <c r="N23">
-        <v>1.055183483456128</v>
+        <v>1.024147415396404</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.048685550588484</v>
+        <v>1.000834552238505</v>
       </c>
       <c r="D24">
-        <v>1.055026945871918</v>
+        <v>1.023946920656885</v>
       </c>
       <c r="E24">
-        <v>1.061878068711451</v>
+        <v>1.021056329833731</v>
       </c>
       <c r="F24">
-        <v>1.067971985309899</v>
+        <v>1.029565570846857</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04185362703287</v>
+        <v>1.046793358359515</v>
       </c>
       <c r="J24">
-        <v>1.054790989058712</v>
+        <v>1.028300514561405</v>
       </c>
       <c r="K24">
-        <v>1.058331925528627</v>
+        <v>1.037566159177731</v>
       </c>
       <c r="L24">
-        <v>1.065160240923283</v>
+        <v>1.034723494763466</v>
       </c>
       <c r="M24">
-        <v>1.071234140414854</v>
+        <v>1.043092640604689</v>
       </c>
       <c r="N24">
-        <v>1.056288913249393</v>
+        <v>1.0297608192398</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.050565839904383</v>
+        <v>1.01033789986095</v>
       </c>
       <c r="D25">
-        <v>1.0564961719018</v>
+        <v>1.031191307861534</v>
       </c>
       <c r="E25">
-        <v>1.063652492123256</v>
+        <v>1.029535399869971</v>
       </c>
       <c r="F25">
-        <v>1.069701849873498</v>
+        <v>1.037887444105154</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042232277851301</v>
+        <v>1.049313028444276</v>
       </c>
       <c r="J25">
-        <v>1.05607118458682</v>
+        <v>1.034522291777023</v>
       </c>
       <c r="K25">
-        <v>1.059485048607568</v>
+        <v>1.043323973306703</v>
       </c>
       <c r="L25">
-        <v>1.066619986914063</v>
+        <v>1.041691887475916</v>
       </c>
       <c r="M25">
-        <v>1.072651512979423</v>
+        <v>1.049924757758944</v>
       </c>
       <c r="N25">
-        <v>1.057570926801991</v>
+        <v>1.035991432092712</v>
       </c>
     </row>
   </sheetData>
